--- a/docs/homicides.xlsx
+++ b/docs/homicides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="263">
   <si>
     <t>daimler</t>
   </si>
@@ -782,9 +782,6 @@
     <t>Dr. Dieter Zetche</t>
   </si>
   <si>
-    <t>§219a</t>
-  </si>
-  <si>
     <t>ibm.damiler.merkel.marx(dr dieter zetcher)</t>
   </si>
   <si>
@@ -822,6 +819,84 @@
   </si>
   <si>
     <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-31-2023.MANNHEIM.pdf</t>
+  </si>
+  <si>
+    <t>§219a  Merkel Legiisaiton, Abortion</t>
+  </si>
+  <si>
+    <t>§219a,  Merkel Legiisaiton, Abortion</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.PHILIP.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.WOLFGANG.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.ALIOS.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.SONNY.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.FESENBECK.pdf</t>
+  </si>
+  <si>
+    <t>Car, Husband dies while onsite 1/4</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.BORIS.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.ARIANA.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.BRUCKSCHEN.pdf</t>
+  </si>
+  <si>
+    <t>New Wife US Citizen, 87 German</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.MR-FISHAN.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-31-2023.BRUSHINI.pdf</t>
+  </si>
+  <si>
+    <t>IBM/DAMILER 2005 LINK, Ghost/Soul Hilter Wife Eva Brown, Gorhceo(micheal grandmoter)</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-31-2023.WESTLEY.pdf</t>
+  </si>
+  <si>
+    <t>IBM Client dtcc, LEE, FORT WORTH</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-31-2023.MRS-FISHAN.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-31-2023.BILL.pdf</t>
+  </si>
+  <si>
+    <t>Militayr Name, Quatz, TV (depare hosue wife)</t>
+  </si>
+  <si>
+    <t>WWI drunk frined</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-31-2023.ALFONZ.pdf</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-23-2023.PETE.pdf</t>
+  </si>
+  <si>
+    <t>peterson religoin crimes</t>
+  </si>
+  <si>
+    <t>https://1d8723.github.io/www/webservice/nonPoliceHomicide/docs/01-32-2023.GORBACHEV.pdf</t>
+  </si>
+  <si>
+    <t>cherrytree found out, embarissi, PREA</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1758,7 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1695,7 +1770,7 @@
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="92.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
@@ -1756,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1803,7 +1878,7 @@
         <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
         <v>212</v>
@@ -1815,19 +1890,19 @@
         <v>213</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" t="s">
         <v>224</v>
-      </c>
-      <c r="I3" t="s">
-        <v>225</v>
       </c>
       <c r="J3" t="s">
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>213</v>
@@ -1865,10 +1940,10 @@
         <v>213</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>213</v>
@@ -1882,7 +1957,7 @@
         <v>1994</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1891,7 +1966,7 @@
         <v>214</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>214</v>
@@ -1911,7 +1986,7 @@
         <v>1990</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -1920,7 +1995,7 @@
         <v>214</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
         <v>215</v>
@@ -1952,7 +2027,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
@@ -2013,8 +2088,8 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>232</v>
+      <c r="G8" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
@@ -2072,8 +2147,8 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>232</v>
+      <c r="G9" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -2131,8 +2206,8 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>232</v>
+      <c r="G10" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>
@@ -2181,8 +2256,8 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>232</v>
+      <c r="G11" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -2217,16 +2292,16 @@
         <v>1995</v>
       </c>
       <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" t="s">
         <v>228</v>
-      </c>
-      <c r="D12" t="s">
-        <v>229</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
-        <v>232</v>
+      <c r="G12" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -2278,8 +2353,8 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>232</v>
+      <c r="G13" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -2317,7 +2392,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -2355,7 +2430,7 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I15" t="s">
         <v>62</v>
@@ -2417,7 +2492,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I16" t="s">
         <v>7</v>
@@ -2470,7 +2545,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
@@ -2532,7 +2607,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>232</v>
+        <v>243</v>
+      </c>
+      <c r="H18" t="s">
+        <v>244</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
@@ -2593,8 +2671,8 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>232</v>
+      <c r="G19" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="I19" t="s">
         <v>7</v>
@@ -2655,8 +2733,8 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>232</v>
+      <c r="G20" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -2708,8 +2786,11 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" t="s">
-        <v>232</v>
+      <c r="G21" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s">
+        <v>248</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -2764,8 +2845,8 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>232</v>
+      <c r="G22" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="I22" t="s">
         <v>68</v>
@@ -2830,7 +2911,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -2885,8 +2966,11 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
-        <v>232</v>
+      <c r="G24" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" t="s">
+        <v>251</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -2948,7 +3032,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -3003,8 +3087,11 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>232</v>
+      <c r="G26" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" t="s">
+        <v>253</v>
       </c>
       <c r="I26" t="s">
         <v>7</v>
@@ -3062,8 +3149,8 @@
       <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
-        <v>232</v>
+      <c r="G27" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -3124,8 +3211,8 @@
       <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>232</v>
+      <c r="G28" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="I28" t="s">
         <v>28</v>
@@ -3186,8 +3273,11 @@
       <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>232</v>
+      <c r="G29" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" t="s">
+        <v>256</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
@@ -3239,8 +3329,11 @@
       <c r="E30" t="s">
         <v>27</v>
       </c>
-      <c r="G30" t="s">
-        <v>232</v>
+      <c r="G30" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" t="s">
+        <v>257</v>
       </c>
       <c r="I30" t="s">
         <v>72</v>
@@ -3289,8 +3382,11 @@
       <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>232</v>
+      <c r="G31" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" t="s">
+        <v>260</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -3354,8 +3450,8 @@
       <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>232</v>
+      <c r="G32" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="I32" t="s">
         <v>28</v>
@@ -3401,8 +3497,11 @@
       <c r="E33" t="s">
         <v>27</v>
       </c>
-      <c r="G33" t="s">
-        <v>232</v>
+      <c r="G33" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" t="s">
+        <v>262</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
@@ -3461,7 +3560,7 @@
         <v>27</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V34" s="2"/>
       <c r="X34" t="s">
@@ -3883,9 +3982,28 @@
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G7" r:id="rId6"/>
     <hyperlink ref="G18" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9"/>
+    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="G11" r:id="rId11"/>
+    <hyperlink ref="G12" r:id="rId12"/>
+    <hyperlink ref="G13" r:id="rId13"/>
+    <hyperlink ref="G19" r:id="rId14"/>
+    <hyperlink ref="G20" r:id="rId15"/>
+    <hyperlink ref="G21" r:id="rId16"/>
+    <hyperlink ref="G22" r:id="rId17"/>
+    <hyperlink ref="G24" r:id="rId18"/>
+    <hyperlink ref="G26" r:id="rId19"/>
+    <hyperlink ref="G28" r:id="rId20"/>
+    <hyperlink ref="G27" r:id="rId21"/>
+    <hyperlink ref="G29" r:id="rId22"/>
+    <hyperlink ref="G30" r:id="rId23"/>
+    <hyperlink ref="G31" r:id="rId24"/>
+    <hyperlink ref="G32" r:id="rId25"/>
+    <hyperlink ref="G33" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
